--- a/data/pca/factorExposure/factorExposure_2019-05-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1281425169904777</v>
+        <v>0.07789478315894292</v>
       </c>
       <c r="C2">
-        <v>-0.01481602495953025</v>
+        <v>0.01849341833885956</v>
       </c>
       <c r="D2">
-        <v>0.03796813196337234</v>
+        <v>-0.04162883140575038</v>
       </c>
       <c r="E2">
-        <v>0.09502328138794791</v>
+        <v>-0.05154663625653693</v>
       </c>
       <c r="F2">
-        <v>-0.09829363153851672</v>
+        <v>0.1304777139020923</v>
       </c>
       <c r="G2">
-        <v>0.1306384416879057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0914960888373058</v>
+      </c>
+      <c r="H2">
+        <v>-0.08746824495049822</v>
+      </c>
+      <c r="I2">
+        <v>-0.02582182898252373</v>
+      </c>
+      <c r="J2">
+        <v>-0.04318159453444235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2130217001357909</v>
+        <v>0.160126225006863</v>
       </c>
       <c r="C3">
-        <v>0.09267837012702937</v>
+        <v>0.08652938938055084</v>
       </c>
       <c r="D3">
-        <v>-0.02368565895952084</v>
+        <v>0.03136947471053868</v>
       </c>
       <c r="E3">
-        <v>0.3232224269992786</v>
+        <v>-0.07777116031771802</v>
       </c>
       <c r="F3">
-        <v>-0.01912987187390507</v>
+        <v>0.3708778811242722</v>
       </c>
       <c r="G3">
-        <v>0.3585693733385791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.0137360383068081</v>
+      </c>
+      <c r="H3">
+        <v>-0.2841519093348272</v>
+      </c>
+      <c r="I3">
+        <v>-0.1614654503597179</v>
+      </c>
+      <c r="J3">
+        <v>-0.3921148241210289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09783150975811442</v>
+        <v>0.07186641600469458</v>
       </c>
       <c r="C4">
-        <v>0.02770874328213097</v>
+        <v>0.03685818667829188</v>
       </c>
       <c r="D4">
-        <v>0.01709404523628893</v>
+        <v>-0.02293740628827724</v>
       </c>
       <c r="E4">
-        <v>0.07441384079599295</v>
+        <v>0.01344153522964414</v>
       </c>
       <c r="F4">
-        <v>-0.05072336333794621</v>
+        <v>0.09446882190896926</v>
       </c>
       <c r="G4">
-        <v>0.03504884852172455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03424424569302439</v>
+      </c>
+      <c r="H4">
+        <v>-0.03188687964487869</v>
+      </c>
+      <c r="I4">
+        <v>-0.02695990467338988</v>
+      </c>
+      <c r="J4">
+        <v>-0.04111129027779726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01418119880082354</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.004192749336746408</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0005299256769499616</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.00566943834172129</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.002179212177501255</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01951821521652995</v>
+      </c>
+      <c r="H6">
+        <v>-0.001212221869393724</v>
+      </c>
+      <c r="I6">
+        <v>0.002755953289150745</v>
+      </c>
+      <c r="J6">
+        <v>0.001872415283252064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04199404319999268</v>
+        <v>0.03212807132548429</v>
       </c>
       <c r="C7">
-        <v>0.005765226583098967</v>
+        <v>0.01777721269937286</v>
       </c>
       <c r="D7">
-        <v>0.03357082421643047</v>
+        <v>-0.01902134834007461</v>
       </c>
       <c r="E7">
-        <v>0.07960464415042344</v>
+        <v>-0.0006914408047191161</v>
       </c>
       <c r="F7">
-        <v>0.03785585574309128</v>
+        <v>0.06182763730813644</v>
       </c>
       <c r="G7">
-        <v>0.01780498793610416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01496966378946814</v>
+      </c>
+      <c r="H7">
+        <v>-0.04954578742362774</v>
+      </c>
+      <c r="I7">
+        <v>-9.89516288185288e-06</v>
+      </c>
+      <c r="J7">
+        <v>-0.008900985865192518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.0422675835124341</v>
+        <v>0.03143942793609674</v>
       </c>
       <c r="C8">
-        <v>0.03873786216341701</v>
+        <v>0.03907183157714677</v>
       </c>
       <c r="D8">
-        <v>-0.0008250438873043313</v>
+        <v>-0.005934608139852656</v>
       </c>
       <c r="E8">
-        <v>0.07127174557995349</v>
+        <v>0.006137919060865844</v>
       </c>
       <c r="F8">
-        <v>-0.001395082852121485</v>
+        <v>0.08594523109918961</v>
       </c>
       <c r="G8">
-        <v>0.05450484315575299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0009121006408056297</v>
+      </c>
+      <c r="H8">
+        <v>-0.05469989932473647</v>
+      </c>
+      <c r="I8">
+        <v>-0.02942165623603904</v>
+      </c>
+      <c r="J8">
+        <v>-0.03793911389508985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08557349585275102</v>
+        <v>0.06066404205319948</v>
       </c>
       <c r="C9">
-        <v>0.02965109629234104</v>
+        <v>0.03683492963369193</v>
       </c>
       <c r="D9">
-        <v>0.02830754678142869</v>
+        <v>-0.02374710203205186</v>
       </c>
       <c r="E9">
-        <v>0.06737314328225662</v>
+        <v>0.01639950757280872</v>
       </c>
       <c r="F9">
-        <v>-0.03113638766084954</v>
+        <v>0.09537607049903923</v>
       </c>
       <c r="G9">
-        <v>0.03413941984797544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02595330045154823</v>
+      </c>
+      <c r="H9">
+        <v>-0.02889400830728667</v>
+      </c>
+      <c r="I9">
+        <v>-0.006684379835138569</v>
+      </c>
+      <c r="J9">
+        <v>-0.005301493079483566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.008317078932572679</v>
+        <v>0.01451654037739356</v>
       </c>
       <c r="C10">
-        <v>-0.1593602188011655</v>
+        <v>-0.1586614719747926</v>
       </c>
       <c r="D10">
-        <v>-0.006026289072969099</v>
+        <v>0.01139381099815173</v>
       </c>
       <c r="E10">
-        <v>0.05543300709734415</v>
+        <v>-0.032560124770423</v>
       </c>
       <c r="F10">
-        <v>-0.01336957316626561</v>
+        <v>0.05378705071054372</v>
       </c>
       <c r="G10">
-        <v>-0.001053346300631412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02203273274000872</v>
+      </c>
+      <c r="H10">
+        <v>0.005160143293102508</v>
+      </c>
+      <c r="I10">
+        <v>-0.1216051067799793</v>
+      </c>
+      <c r="J10">
+        <v>-0.007150760981539754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05707901663403275</v>
+        <v>0.04789977311611091</v>
       </c>
       <c r="C11">
-        <v>0.00547682159704134</v>
+        <v>0.02262233330448044</v>
       </c>
       <c r="D11">
-        <v>-0.009214009858375796</v>
+        <v>-0.005847706237071213</v>
       </c>
       <c r="E11">
-        <v>0.04109139274912899</v>
+        <v>-0.01902730712943919</v>
       </c>
       <c r="F11">
-        <v>-0.006565056506111936</v>
+        <v>0.04247743915772508</v>
       </c>
       <c r="G11">
-        <v>-0.01956701642313474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.002031582960906325</v>
+      </c>
+      <c r="H11">
+        <v>-0.01370830423996063</v>
+      </c>
+      <c r="I11">
+        <v>0.01785980227250201</v>
+      </c>
+      <c r="J11">
+        <v>-0.009821200154127801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04264089978228355</v>
+        <v>0.04356918745762135</v>
       </c>
       <c r="C12">
-        <v>0.01176167026363266</v>
+        <v>0.02324643538153024</v>
       </c>
       <c r="D12">
-        <v>-0.006134574472693751</v>
+        <v>-0.00581473557005201</v>
       </c>
       <c r="E12">
-        <v>0.03390666609021061</v>
+        <v>-0.003520124919414624</v>
       </c>
       <c r="F12">
-        <v>-0.002668748245915227</v>
+        <v>0.02539963024486719</v>
       </c>
       <c r="G12">
-        <v>-0.001535343081505299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.004391695608359215</v>
+      </c>
+      <c r="H12">
+        <v>-0.01098854147496706</v>
+      </c>
+      <c r="I12">
+        <v>0.01760952473145848</v>
+      </c>
+      <c r="J12">
+        <v>-0.002876372655165426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05939859388557354</v>
+        <v>0.03997761278126701</v>
       </c>
       <c r="C13">
-        <v>0.01713563083381376</v>
+        <v>0.02243822774597817</v>
       </c>
       <c r="D13">
-        <v>-0.009804664896888905</v>
+        <v>-0.008067725396764633</v>
       </c>
       <c r="E13">
-        <v>0.1113596871710339</v>
+        <v>-0.03830947137384135</v>
       </c>
       <c r="F13">
-        <v>-0.02318903861097749</v>
+        <v>0.09918519825049407</v>
       </c>
       <c r="G13">
-        <v>0.05362923977746219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.007909092282074733</v>
+      </c>
+      <c r="H13">
+        <v>-0.06095290071592931</v>
+      </c>
+      <c r="I13">
+        <v>-0.01047695022849454</v>
+      </c>
+      <c r="J13">
+        <v>-0.03163248232349054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03807496227989376</v>
+        <v>0.02791053441273653</v>
       </c>
       <c r="C14">
-        <v>0.009435644027570245</v>
+        <v>0.0162732886088301</v>
       </c>
       <c r="D14">
-        <v>0.02008926261420648</v>
+        <v>-0.02218087366631332</v>
       </c>
       <c r="E14">
-        <v>0.02173501797788664</v>
+        <v>0.001479604603478922</v>
       </c>
       <c r="F14">
-        <v>0.004249258788095484</v>
+        <v>0.04020546476574283</v>
       </c>
       <c r="G14">
-        <v>0.04022979208694577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01257635130196514</v>
+      </c>
+      <c r="H14">
+        <v>-0.05841464036809605</v>
+      </c>
+      <c r="I14">
+        <v>-0.0162144223405619</v>
+      </c>
+      <c r="J14">
+        <v>0.01018711157434979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04746160751966445</v>
+        <v>0.04185030110814986</v>
       </c>
       <c r="C16">
-        <v>0.0218415268617945</v>
+        <v>0.03108125883392069</v>
       </c>
       <c r="D16">
-        <v>-0.0170996179482877</v>
+        <v>-0.0003668674530030456</v>
       </c>
       <c r="E16">
-        <v>0.03886147614107123</v>
+        <v>-0.0143729796812201</v>
       </c>
       <c r="F16">
-        <v>-0.001240483442800515</v>
+        <v>0.03648586141918265</v>
       </c>
       <c r="G16">
-        <v>-0.01464964091717889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.009527951644827689</v>
+      </c>
+      <c r="H16">
+        <v>-0.01605102132459351</v>
+      </c>
+      <c r="I16">
+        <v>0.01476141732550343</v>
+      </c>
+      <c r="J16">
+        <v>-0.007570235635605626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05001917912248831</v>
+        <v>0.04332058952319352</v>
       </c>
       <c r="C19">
-        <v>0.02738434711234334</v>
+        <v>0.03436817960169498</v>
       </c>
       <c r="D19">
-        <v>-7.979519145924374e-05</v>
+        <v>-0.008819957350367552</v>
       </c>
       <c r="E19">
-        <v>0.07815713749246626</v>
+        <v>-0.01815701729566452</v>
       </c>
       <c r="F19">
-        <v>0.005037670906628488</v>
+        <v>0.09001312391424383</v>
       </c>
       <c r="G19">
-        <v>0.07407760876201464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.004979856592375355</v>
+      </c>
+      <c r="H19">
+        <v>-0.08632110788125411</v>
+      </c>
+      <c r="I19">
+        <v>-0.03752884849567747</v>
+      </c>
+      <c r="J19">
+        <v>-0.02363392169016239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03694135544317891</v>
+        <v>0.01718793668705421</v>
       </c>
       <c r="C20">
-        <v>0.03492562521357587</v>
+        <v>0.03271469215686802</v>
       </c>
       <c r="D20">
-        <v>0.0125141158711569</v>
+        <v>-0.01461786935580657</v>
       </c>
       <c r="E20">
-        <v>0.06809516324441395</v>
+        <v>-0.002755712736222818</v>
       </c>
       <c r="F20">
-        <v>0.01339774844669532</v>
+        <v>0.07477356587410962</v>
       </c>
       <c r="G20">
-        <v>0.04427739814274321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01065099045146999</v>
+      </c>
+      <c r="H20">
+        <v>-0.07533082903185714</v>
+      </c>
+      <c r="I20">
+        <v>-0.01485137937178968</v>
+      </c>
+      <c r="J20">
+        <v>-0.04936089757751135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03794981893514041</v>
+        <v>0.01839121600849296</v>
       </c>
       <c r="C21">
-        <v>0.01685968889536397</v>
+        <v>0.02577203869479935</v>
       </c>
       <c r="D21">
-        <v>-0.001187138880045445</v>
+        <v>0.00329691446570233</v>
       </c>
       <c r="E21">
-        <v>0.08683877760915459</v>
+        <v>-0.004700113439372255</v>
       </c>
       <c r="F21">
-        <v>-0.04741941595404341</v>
+        <v>0.08029689240204434</v>
       </c>
       <c r="G21">
-        <v>0.04600384560976219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02093561392394255</v>
+      </c>
+      <c r="H21">
+        <v>-0.04091104287501385</v>
+      </c>
+      <c r="I21">
+        <v>0.004651151159123299</v>
+      </c>
+      <c r="J21">
+        <v>0.01628311694444969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.0479283597488398</v>
+        <v>0.04067330609064049</v>
       </c>
       <c r="C24">
-        <v>0.01387859949669425</v>
+        <v>0.02024830032406262</v>
       </c>
       <c r="D24">
-        <v>-0.004562080616572604</v>
+        <v>-0.005405964718891073</v>
       </c>
       <c r="E24">
-        <v>0.04881651905146123</v>
+        <v>-0.01258985628076955</v>
       </c>
       <c r="F24">
-        <v>-0.003486065127341864</v>
+        <v>0.04485210435110112</v>
       </c>
       <c r="G24">
-        <v>-0.009183319499245737</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.009848572230421297</v>
+      </c>
+      <c r="H24">
+        <v>-0.01434163753818664</v>
+      </c>
+      <c r="I24">
+        <v>0.0146922196303857</v>
+      </c>
+      <c r="J24">
+        <v>-0.01794425733828995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.0479177971880032</v>
+        <v>0.04154251900251955</v>
       </c>
       <c r="C25">
-        <v>0.00399812155672983</v>
+        <v>0.02026076337548223</v>
       </c>
       <c r="D25">
-        <v>-0.006252449466997954</v>
+        <v>-0.003369089887127486</v>
       </c>
       <c r="E25">
-        <v>0.04616704795867365</v>
+        <v>-0.01486173148472431</v>
       </c>
       <c r="F25">
-        <v>-0.01120748772664355</v>
+        <v>0.04771667065940727</v>
       </c>
       <c r="G25">
-        <v>-0.01029005451408545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002247651888513102</v>
+      </c>
+      <c r="H25">
+        <v>-0.01022010654684269</v>
+      </c>
+      <c r="I25">
+        <v>0.01582353008628588</v>
+      </c>
+      <c r="J25">
+        <v>-0.008081284564615215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.005868774806012182</v>
+        <v>0.01154494479573293</v>
       </c>
       <c r="C26">
-        <v>0.01675181416738278</v>
+        <v>0.017282137270374</v>
       </c>
       <c r="D26">
-        <v>0.004489933268078826</v>
+        <v>0.001067083787417905</v>
       </c>
       <c r="E26">
-        <v>0.05059738078590652</v>
+        <v>-0.02343527319030183</v>
       </c>
       <c r="F26">
-        <v>-0.01870138485661428</v>
+        <v>0.04999583261693318</v>
       </c>
       <c r="G26">
-        <v>0.01442073621850233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.007817888132234186</v>
+      </c>
+      <c r="H26">
+        <v>-0.03842574112790897</v>
+      </c>
+      <c r="I26">
+        <v>0.005635519910894876</v>
+      </c>
+      <c r="J26">
+        <v>-0.01207957408569537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1105352738994449</v>
+        <v>0.08453940875147167</v>
       </c>
       <c r="C27">
-        <v>0.01676727158382062</v>
+        <v>0.02700302779036991</v>
       </c>
       <c r="D27">
-        <v>0.02016794109065824</v>
+        <v>-0.02906662956033322</v>
       </c>
       <c r="E27">
-        <v>0.1141078870238158</v>
+        <v>-0.002529501447872743</v>
       </c>
       <c r="F27">
-        <v>-0.0271787938369363</v>
+        <v>0.08980626969465105</v>
       </c>
       <c r="G27">
-        <v>0.001628684058056837</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.006963539831837437</v>
+      </c>
+      <c r="H27">
+        <v>-0.01131501829344981</v>
+      </c>
+      <c r="I27">
+        <v>-0.009119979115258966</v>
+      </c>
+      <c r="J27">
+        <v>-0.02752534935498378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.007937042153764329</v>
+        <v>0.0295745945765882</v>
       </c>
       <c r="C28">
-        <v>-0.2414373790827228</v>
+        <v>-0.233200483612024</v>
       </c>
       <c r="D28">
-        <v>-0.01203400339068423</v>
+        <v>0.01752250748562833</v>
       </c>
       <c r="E28">
-        <v>0.03015992153230704</v>
+        <v>-0.02563655667507849</v>
       </c>
       <c r="F28">
-        <v>-0.01451050168836669</v>
+        <v>0.04110431708665452</v>
       </c>
       <c r="G28">
-        <v>-0.01531052284555726</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02695777394257228</v>
+      </c>
+      <c r="H28">
+        <v>0.02537930142237366</v>
+      </c>
+      <c r="I28">
+        <v>-0.1696462792059131</v>
+      </c>
+      <c r="J28">
+        <v>-0.01932833754698403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01846561838085026</v>
+        <v>0.01832548209064296</v>
       </c>
       <c r="C29">
-        <v>0.01785780770595101</v>
+        <v>0.0184561472741421</v>
       </c>
       <c r="D29">
-        <v>0.0230954077392717</v>
+        <v>-0.02049726029643892</v>
       </c>
       <c r="E29">
-        <v>0.0273560377204374</v>
+        <v>0.008491853793970881</v>
       </c>
       <c r="F29">
-        <v>-0.006328012265955528</v>
+        <v>0.04070011287518613</v>
       </c>
       <c r="G29">
-        <v>0.04004769353538125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01285291288636776</v>
+      </c>
+      <c r="H29">
+        <v>-0.05728672485246816</v>
+      </c>
+      <c r="I29">
+        <v>-0.00700911148268069</v>
+      </c>
+      <c r="J29">
+        <v>0.02806823505148173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1051249069789121</v>
+        <v>0.09794181615292318</v>
       </c>
       <c r="C30">
-        <v>0.01095064846839682</v>
+        <v>0.03700452861421814</v>
       </c>
       <c r="D30">
-        <v>0.01763230643347762</v>
+        <v>-0.03246573904230621</v>
       </c>
       <c r="E30">
-        <v>0.1235977998197358</v>
+        <v>-0.03741008237187783</v>
       </c>
       <c r="F30">
-        <v>-0.0343980091778356</v>
+        <v>0.1096135107870848</v>
       </c>
       <c r="G30">
-        <v>-0.07081093124813645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.009649657230211009</v>
+      </c>
+      <c r="H30">
+        <v>-0.01044126408633566</v>
+      </c>
+      <c r="I30">
+        <v>0.02834962599631593</v>
+      </c>
+      <c r="J30">
+        <v>0.004853459176128705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05685675754324668</v>
+        <v>0.05924741621263786</v>
       </c>
       <c r="C31">
-        <v>0.01387809292503392</v>
+        <v>0.02049739459525962</v>
       </c>
       <c r="D31">
-        <v>0.01366325888131253</v>
+        <v>-0.01956715188874182</v>
       </c>
       <c r="E31">
-        <v>-0.02047109585683697</v>
+        <v>-0.01338428608520459</v>
       </c>
       <c r="F31">
-        <v>-0.006367174631236608</v>
+        <v>0.002772084630704596</v>
       </c>
       <c r="G31">
-        <v>0.007039290456151664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03314958155749982</v>
+      </c>
+      <c r="H31">
+        <v>-0.04762726220296659</v>
+      </c>
+      <c r="I31">
+        <v>-0.01089274036585481</v>
+      </c>
+      <c r="J31">
+        <v>0.02210259013139059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07046314953367032</v>
+        <v>0.04673430786593129</v>
       </c>
       <c r="C32">
-        <v>0.02724526253430535</v>
+        <v>0.04636225297556531</v>
       </c>
       <c r="D32">
-        <v>0.01270737471513532</v>
+        <v>-0.02189008160396452</v>
       </c>
       <c r="E32">
-        <v>0.1157311211883901</v>
+        <v>-0.002579129399625389</v>
       </c>
       <c r="F32">
-        <v>0.002272149668984522</v>
+        <v>0.10226758922796</v>
       </c>
       <c r="G32">
-        <v>0.03324030892387152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.003946996578678042</v>
+      </c>
+      <c r="H32">
+        <v>-0.04586159046863348</v>
+      </c>
+      <c r="I32">
+        <v>-0.02193719955232004</v>
+      </c>
+      <c r="J32">
+        <v>0.008388709199288275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.068334761845015</v>
+        <v>0.05727516665863464</v>
       </c>
       <c r="C33">
-        <v>0.03145922084449843</v>
+        <v>0.04677257488121987</v>
       </c>
       <c r="D33">
-        <v>0.007099721895873976</v>
+        <v>-0.006495358602155861</v>
       </c>
       <c r="E33">
-        <v>0.07357345190221534</v>
+        <v>-0.02903563243296488</v>
       </c>
       <c r="F33">
-        <v>-0.0467505666702013</v>
+        <v>0.08149829038544597</v>
       </c>
       <c r="G33">
-        <v>0.02783888305811305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01857217240349624</v>
+      </c>
+      <c r="H33">
+        <v>-0.05208487521962419</v>
+      </c>
+      <c r="I33">
+        <v>0.01389371523997116</v>
+      </c>
+      <c r="J33">
+        <v>-0.01178061748318092</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04687335759331952</v>
+        <v>0.04088435878646149</v>
       </c>
       <c r="C34">
-        <v>0.01422464543316228</v>
+        <v>0.02675098682377419</v>
       </c>
       <c r="D34">
-        <v>-0.006095063208621499</v>
+        <v>-0.009110367872229392</v>
       </c>
       <c r="E34">
-        <v>0.02660094027871635</v>
+        <v>-0.01001115982320029</v>
       </c>
       <c r="F34">
-        <v>0.002512250697674181</v>
+        <v>0.03632770815685021</v>
       </c>
       <c r="G34">
-        <v>0.002787260404286338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001145632701558236</v>
+      </c>
+      <c r="H34">
+        <v>-0.0207412940819903</v>
+      </c>
+      <c r="I34">
+        <v>0.01398149745016064</v>
+      </c>
+      <c r="J34">
+        <v>-0.00115999568952304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01223717939072234</v>
+        <v>0.01384046247651822</v>
       </c>
       <c r="C36">
-        <v>-0.01001646568286618</v>
+        <v>0.001020156150670868</v>
       </c>
       <c r="D36">
-        <v>0.006052361005779241</v>
+        <v>-0.007397170015058371</v>
       </c>
       <c r="E36">
-        <v>0.02287590067411105</v>
+        <v>-0.002187987706587881</v>
       </c>
       <c r="F36">
-        <v>-0.008111755790012831</v>
+        <v>0.03029684120760867</v>
       </c>
       <c r="G36">
-        <v>0.01351696633587975</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01378967689697288</v>
+      </c>
+      <c r="H36">
+        <v>-0.03371648566477421</v>
+      </c>
+      <c r="I36">
+        <v>-0.002939357238285887</v>
+      </c>
+      <c r="J36">
+        <v>0.02245278087067069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05758215661735144</v>
+        <v>0.03157427161441325</v>
       </c>
       <c r="C38">
-        <v>0.006656713906365624</v>
+        <v>0.01093068948639538</v>
       </c>
       <c r="D38">
-        <v>0.02438790515503787</v>
+        <v>-0.008284875184431344</v>
       </c>
       <c r="E38">
-        <v>0.03258336423282798</v>
+        <v>-0.007305454721284785</v>
       </c>
       <c r="F38">
-        <v>-0.0126621137843105</v>
+        <v>0.0517516068349294</v>
       </c>
       <c r="G38">
-        <v>0.04317452533243548</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02437582942528815</v>
+      </c>
+      <c r="H38">
+        <v>-0.01970277435521928</v>
+      </c>
+      <c r="I38">
+        <v>0.001495248716741564</v>
+      </c>
+      <c r="J38">
+        <v>0.02803718960681167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07448840196117319</v>
+        <v>0.0571926850873587</v>
       </c>
       <c r="C39">
-        <v>0.01339954671181418</v>
+        <v>0.03598872010734971</v>
       </c>
       <c r="D39">
-        <v>-8.057440832443366e-05</v>
+        <v>-0.01625107690656997</v>
       </c>
       <c r="E39">
-        <v>0.04832843028144318</v>
+        <v>-0.02475872042610235</v>
       </c>
       <c r="F39">
-        <v>-0.02362494047681479</v>
+        <v>0.05785925461523102</v>
       </c>
       <c r="G39">
-        <v>-0.008211298308512549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.009557049964618867</v>
+      </c>
+      <c r="H39">
+        <v>-0.01641714414273636</v>
+      </c>
+      <c r="I39">
+        <v>0.03390045076228025</v>
+      </c>
+      <c r="J39">
+        <v>-0.003530906556171299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07074254285700972</v>
+        <v>0.0556258607660987</v>
       </c>
       <c r="C40">
-        <v>0.02856203200715867</v>
+        <v>0.03498073620582576</v>
       </c>
       <c r="D40">
-        <v>0.003325867043581551</v>
+        <v>-0.02500218818416134</v>
       </c>
       <c r="E40">
-        <v>0.1127831035776832</v>
+        <v>-0.04482515546920499</v>
       </c>
       <c r="F40">
-        <v>-0.03768766101303952</v>
+        <v>0.1028760365042813</v>
       </c>
       <c r="G40">
-        <v>0.09932296054694426</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0003667142837662531</v>
+      </c>
+      <c r="H40">
+        <v>-0.08133264742714612</v>
+      </c>
+      <c r="I40">
+        <v>-0.005085390003820175</v>
+      </c>
+      <c r="J40">
+        <v>-0.05571783951404164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003894574440271243</v>
+        <v>0.001019153801072388</v>
       </c>
       <c r="C41">
-        <v>0.01275475045558113</v>
+        <v>0.01173360322678639</v>
       </c>
       <c r="D41">
-        <v>0.01733505264392128</v>
+        <v>-0.005043694342205407</v>
       </c>
       <c r="E41">
-        <v>0.01055678403228989</v>
+        <v>-0.0003190642019837118</v>
       </c>
       <c r="F41">
-        <v>-0.02266853742181971</v>
+        <v>0.01755403537407407</v>
       </c>
       <c r="G41">
-        <v>0.02659544521896654</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02627735518030504</v>
+      </c>
+      <c r="H41">
+        <v>-0.04060311581530946</v>
+      </c>
+      <c r="I41">
+        <v>-0.02381339156961013</v>
+      </c>
+      <c r="J41">
+        <v>0.00781738863415863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1300939220805926</v>
+        <v>0.2372059921832165</v>
       </c>
       <c r="C42">
-        <v>0.1724356446185578</v>
+        <v>0.1414290586901991</v>
       </c>
       <c r="D42">
-        <v>-0.9364040014970226</v>
+        <v>0.9013058050587887</v>
       </c>
       <c r="E42">
-        <v>-0.02016208079482506</v>
+        <v>-0.195138535950235</v>
       </c>
       <c r="F42">
-        <v>0.01133130128890343</v>
+        <v>-0.2047172868906105</v>
       </c>
       <c r="G42">
-        <v>-0.131068112171905</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.00297597595939929</v>
+      </c>
+      <c r="H42">
+        <v>0.0008925650791092644</v>
+      </c>
+      <c r="I42">
+        <v>-0.05252476297388218</v>
+      </c>
+      <c r="J42">
+        <v>-0.001948423507201741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008095477439418009</v>
+        <v>0.003426649251316633</v>
       </c>
       <c r="C43">
-        <v>0.01509343593379803</v>
+        <v>0.01391952474846389</v>
       </c>
       <c r="D43">
-        <v>0.01676752613288458</v>
+        <v>-0.006396807068434195</v>
       </c>
       <c r="E43">
-        <v>0.03164590354018655</v>
+        <v>-0.005703790966073102</v>
       </c>
       <c r="F43">
-        <v>0.0002674120060893269</v>
+        <v>0.02966765604779946</v>
       </c>
       <c r="G43">
-        <v>0.01957824734597028</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.009079781409195836</v>
+      </c>
+      <c r="H43">
+        <v>-0.03852872290370588</v>
+      </c>
+      <c r="I43">
+        <v>-0.01531088862956121</v>
+      </c>
+      <c r="J43">
+        <v>-0.00030273379686171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03775624737328032</v>
+        <v>0.02528196410713966</v>
       </c>
       <c r="C44">
-        <v>0.03674729081766162</v>
+        <v>0.03176476749603247</v>
       </c>
       <c r="D44">
-        <v>0.008712514082822606</v>
+        <v>-0.002637774387793069</v>
       </c>
       <c r="E44">
-        <v>0.1108090039064218</v>
+        <v>-0.02501131892380415</v>
       </c>
       <c r="F44">
-        <v>-0.07594236842722164</v>
+        <v>0.1210798299070553</v>
       </c>
       <c r="G44">
-        <v>0.13304300419242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03121700854870144</v>
+      </c>
+      <c r="H44">
+        <v>-0.121567392464119</v>
+      </c>
+      <c r="I44">
+        <v>-0.02531437438713267</v>
+      </c>
+      <c r="J44">
+        <v>-0.0117434126107387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02210624815410057</v>
+        <v>0.02110339400650008</v>
       </c>
       <c r="C46">
-        <v>0.01358997163876372</v>
+        <v>0.02556810660662736</v>
       </c>
       <c r="D46">
-        <v>0.02231966472042744</v>
+        <v>-0.01881903516770968</v>
       </c>
       <c r="E46">
-        <v>0.02068414142265964</v>
+        <v>-0.006386325846533868</v>
       </c>
       <c r="F46">
-        <v>-0.01973524694919977</v>
+        <v>0.04732050324764481</v>
       </c>
       <c r="G46">
-        <v>0.03989102718137118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01432401200351805</v>
+      </c>
+      <c r="H46">
+        <v>-0.06264901750346216</v>
+      </c>
+      <c r="I46">
+        <v>-0.01430459417323584</v>
+      </c>
+      <c r="J46">
+        <v>0.004302384026693249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08195746776332072</v>
+        <v>0.0887308018865328</v>
       </c>
       <c r="C47">
-        <v>0.01014583234954095</v>
+        <v>0.01987987828153597</v>
       </c>
       <c r="D47">
-        <v>0.01790914097982232</v>
+        <v>-0.02408336863287659</v>
       </c>
       <c r="E47">
-        <v>-0.0245514017392495</v>
+        <v>0.002519574734536045</v>
       </c>
       <c r="F47">
-        <v>-0.0001401177474170861</v>
+        <v>-0.002788589982519224</v>
       </c>
       <c r="G47">
-        <v>0.02696009660731662</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02965959055336369</v>
+      </c>
+      <c r="H47">
+        <v>-0.06391788634212593</v>
+      </c>
+      <c r="I47">
+        <v>-0.0194567690729213</v>
+      </c>
+      <c r="J47">
+        <v>0.009291794731432984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01514006788535528</v>
+        <v>0.01598107045906752</v>
       </c>
       <c r="C48">
-        <v>0.01689978564842724</v>
+        <v>0.01931599214875419</v>
       </c>
       <c r="D48">
-        <v>0.01499525735951897</v>
+        <v>-0.008201769329083206</v>
       </c>
       <c r="E48">
-        <v>0.03480425382964113</v>
+        <v>-0.0003981649105038534</v>
       </c>
       <c r="F48">
-        <v>-0.01605328800103389</v>
+        <v>0.03737925068923673</v>
       </c>
       <c r="G48">
-        <v>0.01132946234664935</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.007266158581845283</v>
+      </c>
+      <c r="H48">
+        <v>-0.02481305635376104</v>
+      </c>
+      <c r="I48">
+        <v>-0.01282717176077058</v>
+      </c>
+      <c r="J48">
+        <v>0.005133391417843888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08317104548245288</v>
+        <v>0.08482637822653682</v>
       </c>
       <c r="C50">
-        <v>0.02726443260489844</v>
+        <v>0.03459360161210799</v>
       </c>
       <c r="D50">
-        <v>0.02435121684978746</v>
+        <v>-0.01827625453612514</v>
       </c>
       <c r="E50">
-        <v>-0.02451549456587605</v>
+        <v>0.004473523064498891</v>
       </c>
       <c r="F50">
-        <v>0.0005710718392264629</v>
+        <v>0.003265991429264816</v>
       </c>
       <c r="G50">
-        <v>0.009436303035470262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0002482652796100725</v>
+      </c>
+      <c r="H50">
+        <v>-0.04917938341991496</v>
+      </c>
+      <c r="I50">
+        <v>0.0008040519812509805</v>
+      </c>
+      <c r="J50">
+        <v>0.05071999274603611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.07045161836254439</v>
+        <v>0.04702910006675039</v>
       </c>
       <c r="C51">
-        <v>-0.02203510045823442</v>
+        <v>-0.004402639853398503</v>
       </c>
       <c r="D51">
-        <v>-0.003240920216255334</v>
+        <v>-0.01208997545887075</v>
       </c>
       <c r="E51">
-        <v>0.07393370927381242</v>
+        <v>-0.04296476573921242</v>
       </c>
       <c r="F51">
-        <v>-0.05092974243365442</v>
+        <v>0.08660808098052043</v>
       </c>
       <c r="G51">
-        <v>0.02133813303685639</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0435378947900598</v>
+      </c>
+      <c r="H51">
+        <v>-0.06639783647026405</v>
+      </c>
+      <c r="I51">
+        <v>-0.03418597186916018</v>
+      </c>
+      <c r="J51">
+        <v>0.01168262675600076</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1452306355680704</v>
+        <v>0.1280035038549783</v>
       </c>
       <c r="C53">
-        <v>0.01449133521517511</v>
+        <v>0.03837530460348403</v>
       </c>
       <c r="D53">
-        <v>0.0427270535076841</v>
+        <v>-0.04679114243193248</v>
       </c>
       <c r="E53">
-        <v>-0.04087105496357452</v>
+        <v>0.01390619689038071</v>
       </c>
       <c r="F53">
-        <v>0.01494535327385204</v>
+        <v>-0.03068826476060644</v>
       </c>
       <c r="G53">
-        <v>-0.009486229264187932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02150059226077985</v>
+      </c>
+      <c r="H53">
+        <v>-0.002317511084488887</v>
+      </c>
+      <c r="I53">
+        <v>-0.03077086294012018</v>
+      </c>
+      <c r="J53">
+        <v>-0.02827661338638967</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02478556162252316</v>
+        <v>0.02067004437544997</v>
       </c>
       <c r="C54">
-        <v>-0.004787268949088418</v>
+        <v>0.006975377327242709</v>
       </c>
       <c r="D54">
-        <v>0.02742502633141512</v>
+        <v>-0.02378383014792175</v>
       </c>
       <c r="E54">
-        <v>0.02880137671603135</v>
+        <v>0.005404599836220172</v>
       </c>
       <c r="F54">
-        <v>-0.03921228787807503</v>
+        <v>0.04511760915888229</v>
       </c>
       <c r="G54">
-        <v>0.0550985854019256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03303470451615423</v>
+      </c>
+      <c r="H54">
+        <v>-0.0554814791270802</v>
+      </c>
+      <c r="I54">
+        <v>-0.03310235085303895</v>
+      </c>
+      <c r="J54">
+        <v>0.03052432458903724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.0971209267900681</v>
+        <v>0.1011048581589318</v>
       </c>
       <c r="C55">
-        <v>-0.000542823766243446</v>
+        <v>0.02109281365837301</v>
       </c>
       <c r="D55">
-        <v>0.03821703234393107</v>
+        <v>-0.02870256256724759</v>
       </c>
       <c r="E55">
-        <v>-0.005379465376787225</v>
+        <v>0.03665893642415818</v>
       </c>
       <c r="F55">
-        <v>0.02983941079994674</v>
+        <v>-0.01245855374212011</v>
       </c>
       <c r="G55">
-        <v>-0.01033614204986248</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01253114849092147</v>
+      </c>
+      <c r="H55">
+        <v>-0.01780990352267412</v>
+      </c>
+      <c r="I55">
+        <v>-0.01113120779247414</v>
+      </c>
+      <c r="J55">
+        <v>-0.01758228591977325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1786522336019632</v>
+        <v>0.1685255171695935</v>
       </c>
       <c r="C56">
-        <v>-0.01436351541040593</v>
+        <v>0.01797410561269264</v>
       </c>
       <c r="D56">
-        <v>0.07555177217055307</v>
+        <v>-0.08327585287942461</v>
       </c>
       <c r="E56">
-        <v>-0.07282138994575642</v>
+        <v>0.04640075765951362</v>
       </c>
       <c r="F56">
-        <v>0.06842875771741146</v>
+        <v>-0.06418831012117379</v>
       </c>
       <c r="G56">
-        <v>-0.02645573983655679</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02036536455707494</v>
+      </c>
+      <c r="H56">
+        <v>0.03959116107861354</v>
+      </c>
+      <c r="I56">
+        <v>0.0005795616428236719</v>
+      </c>
+      <c r="J56">
+        <v>-0.05629617637270239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08842236800415285</v>
+        <v>0.06805100071648164</v>
       </c>
       <c r="C57">
-        <v>0.02438736723194054</v>
+        <v>0.02887276448780462</v>
       </c>
       <c r="D57">
-        <v>0.02104037710839119</v>
+        <v>-0.01389484188043493</v>
       </c>
       <c r="E57">
-        <v>0.06230380736968029</v>
+        <v>-0.02577199042279289</v>
       </c>
       <c r="F57">
-        <v>-0.01878488627648893</v>
+        <v>0.06638367402499559</v>
       </c>
       <c r="G57">
-        <v>0.04905184582976385</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.005852269598142081</v>
+      </c>
+      <c r="H57">
+        <v>-0.04372455651378606</v>
+      </c>
+      <c r="I57">
+        <v>0.009830218610770635</v>
+      </c>
+      <c r="J57">
+        <v>-0.03804838095873032</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1643413152106052</v>
+        <v>0.1982944772875697</v>
       </c>
       <c r="C58">
-        <v>-0.00161684901801807</v>
+        <v>0.04787213249295341</v>
       </c>
       <c r="D58">
-        <v>-0.04531777289442783</v>
+        <v>0.009374738185874535</v>
       </c>
       <c r="E58">
-        <v>0.1413727368701387</v>
+        <v>-0.07301898587858126</v>
       </c>
       <c r="F58">
-        <v>0.07461955528977024</v>
+        <v>0.1796744120933476</v>
       </c>
       <c r="G58">
-        <v>0.2695280007056032</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1782118768988882</v>
+      </c>
+      <c r="H58">
+        <v>-0.3146369820397915</v>
+      </c>
+      <c r="I58">
+        <v>-0.01594147502054881</v>
+      </c>
+      <c r="J58">
+        <v>0.6786441656172595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.005463449930652475</v>
+        <v>0.03312868267237683</v>
       </c>
       <c r="C59">
-        <v>-0.2038393659075306</v>
+        <v>-0.1980489159558813</v>
       </c>
       <c r="D59">
-        <v>0.01552874216634085</v>
+        <v>-0.01738083365247244</v>
       </c>
       <c r="E59">
-        <v>0.04898913121794047</v>
+        <v>-0.04319883542223887</v>
       </c>
       <c r="F59">
-        <v>-0.01398661193718069</v>
+        <v>0.05098640899815736</v>
       </c>
       <c r="G59">
-        <v>-0.01434385102608253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.005710393245518749</v>
+      </c>
+      <c r="H59">
+        <v>0.02057516225987977</v>
+      </c>
+      <c r="I59">
+        <v>-0.07388714538865693</v>
+      </c>
+      <c r="J59">
+        <v>0.03281575670023701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.187830576409631</v>
+        <v>0.1830920811224015</v>
       </c>
       <c r="C60">
-        <v>-0.1145202335371825</v>
+        <v>-0.055360061002122</v>
       </c>
       <c r="D60">
-        <v>0.03494554654343773</v>
+        <v>-0.03363931297309774</v>
       </c>
       <c r="E60">
-        <v>0.1703713983659807</v>
+        <v>-0.1266647573065725</v>
       </c>
       <c r="F60">
-        <v>-0.06063760148478965</v>
+        <v>0.1769501819020279</v>
       </c>
       <c r="G60">
-        <v>-0.172004211803388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05136928377695808</v>
+      </c>
+      <c r="H60">
+        <v>0.2483719977927325</v>
+      </c>
+      <c r="I60">
+        <v>0.1059934000181499</v>
+      </c>
+      <c r="J60">
+        <v>0.01328888141720186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04600347439017337</v>
+        <v>0.03686189841937457</v>
       </c>
       <c r="C61">
-        <v>-0.001791915780400243</v>
+        <v>0.01679551509139689</v>
       </c>
       <c r="D61">
-        <v>-0.009113370967754117</v>
+        <v>-0.003275166035776682</v>
       </c>
       <c r="E61">
-        <v>0.0499023437182551</v>
+        <v>-0.01892703201144748</v>
       </c>
       <c r="F61">
-        <v>-0.02531833386744498</v>
+        <v>0.04493357923693497</v>
       </c>
       <c r="G61">
-        <v>-0.007816767431189862</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008667752512668212</v>
+      </c>
+      <c r="H61">
+        <v>-0.007209538852780019</v>
+      </c>
+      <c r="I61">
+        <v>0.03620045525824155</v>
+      </c>
+      <c r="J61">
+        <v>0.01675461773941274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04406011127744009</v>
+        <v>0.02926170678947046</v>
       </c>
       <c r="C63">
-        <v>-0.006856800038454514</v>
+        <v>0.01551808060033489</v>
       </c>
       <c r="D63">
-        <v>0.01447061232803966</v>
+        <v>-0.0131331473167806</v>
       </c>
       <c r="E63">
-        <v>0.03827031200075698</v>
+        <v>-0.009964334511043432</v>
       </c>
       <c r="F63">
-        <v>-0.005821829790950518</v>
+        <v>0.03095961031149687</v>
       </c>
       <c r="G63">
-        <v>0.01650905845622511</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.004316061527331319</v>
+      </c>
+      <c r="H63">
+        <v>-0.04541162334255747</v>
+      </c>
+      <c r="I63">
+        <v>-0.02911828202655319</v>
+      </c>
+      <c r="J63">
+        <v>-0.01934687309580116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08786639720769468</v>
+        <v>0.06254804083626851</v>
       </c>
       <c r="C64">
-        <v>0.03472840079264452</v>
+        <v>0.04269019557341676</v>
       </c>
       <c r="D64">
-        <v>0.05470212143063463</v>
+        <v>-0.03335257382476985</v>
       </c>
       <c r="E64">
-        <v>0.05547503348678297</v>
+        <v>0.02161242931255706</v>
       </c>
       <c r="F64">
-        <v>-0.09266870234838998</v>
+        <v>0.07271436122525828</v>
       </c>
       <c r="G64">
-        <v>-0.0595678437820485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06236356404902657</v>
+      </c>
+      <c r="H64">
+        <v>0.01139669737807337</v>
+      </c>
+      <c r="I64">
+        <v>-0.02420845210680698</v>
+      </c>
+      <c r="J64">
+        <v>-0.07717131184535672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01581627189883137</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.004370612353963833</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0004371411530598373</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006026129891242728</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0002569681801016544</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02057849778822879</v>
+      </c>
+      <c r="H65">
+        <v>0.002289334357731517</v>
+      </c>
+      <c r="I65">
+        <v>0.004621904720443732</v>
+      </c>
+      <c r="J65">
+        <v>0.001689922360627879</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09519581268096201</v>
+        <v>0.06824922940404968</v>
       </c>
       <c r="C66">
-        <v>0.01989313656525066</v>
+        <v>0.04861463468640012</v>
       </c>
       <c r="D66">
-        <v>0.03763548346843429</v>
+        <v>-0.0434747719330672</v>
       </c>
       <c r="E66">
-        <v>0.07871670544030313</v>
+        <v>-0.03060247202651355</v>
       </c>
       <c r="F66">
-        <v>-0.04251797805495251</v>
+        <v>0.0738231628371401</v>
       </c>
       <c r="G66">
-        <v>-0.01038371556680311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01037019527315886</v>
+      </c>
+      <c r="H66">
+        <v>-0.009220257511057733</v>
+      </c>
+      <c r="I66">
+        <v>0.04743383632158561</v>
+      </c>
+      <c r="J66">
+        <v>-0.03207600289768064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06572241815984087</v>
+        <v>0.04211318436954432</v>
       </c>
       <c r="C67">
-        <v>-0.01702325667009812</v>
+        <v>-0.005685742011773008</v>
       </c>
       <c r="D67">
-        <v>0.01191964792462123</v>
+        <v>-0.007825924717670392</v>
       </c>
       <c r="E67">
-        <v>0.02590705490517971</v>
+        <v>-0.01345659114541652</v>
       </c>
       <c r="F67">
-        <v>-0.01095755160958448</v>
+        <v>0.03791035756740595</v>
       </c>
       <c r="G67">
-        <v>0.0360911662856841</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03193666487477145</v>
+      </c>
+      <c r="H67">
+        <v>-0.00215173121272431</v>
+      </c>
+      <c r="I67">
+        <v>0.03496979529284166</v>
+      </c>
+      <c r="J67">
+        <v>0.01007343475682852</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.004610876766579241</v>
+        <v>0.04084187402898505</v>
       </c>
       <c r="C68">
-        <v>-0.2431282321915574</v>
+        <v>-0.2322269724589124</v>
       </c>
       <c r="D68">
-        <v>0.003331092689970196</v>
+        <v>-0.01129801693235058</v>
       </c>
       <c r="E68">
-        <v>0.03217525946318432</v>
+        <v>-0.0391179823683081</v>
       </c>
       <c r="F68">
-        <v>-0.001174985441110879</v>
+        <v>0.03462478731655484</v>
       </c>
       <c r="G68">
-        <v>-0.00634320461967308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.004567579433945586</v>
+      </c>
+      <c r="H68">
+        <v>0.02301297711117171</v>
+      </c>
+      <c r="I68">
+        <v>-0.1740677849650256</v>
+      </c>
+      <c r="J68">
+        <v>0.03252964749760801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06868944408882242</v>
+        <v>0.07004077185792787</v>
       </c>
       <c r="C69">
-        <v>0.009857898476126826</v>
+        <v>0.01911837228378231</v>
       </c>
       <c r="D69">
-        <v>0.02102954483782743</v>
+        <v>-0.03059191087490924</v>
       </c>
       <c r="E69">
-        <v>-0.0101346915459843</v>
+        <v>-0.007331842932261083</v>
       </c>
       <c r="F69">
-        <v>0.001746501075669628</v>
+        <v>0.003957133202913679</v>
       </c>
       <c r="G69">
-        <v>0.01364194987571445</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02089267625388232</v>
+      </c>
+      <c r="H69">
+        <v>-0.04510093028186436</v>
+      </c>
+      <c r="I69">
+        <v>0.00203090376816791</v>
+      </c>
+      <c r="J69">
+        <v>0.005973582362920457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.006658012190117643</v>
+        <v>0.04425293861832758</v>
       </c>
       <c r="C71">
-        <v>-0.2650814829210663</v>
+        <v>-0.2507219938051691</v>
       </c>
       <c r="D71">
-        <v>0.005293324485414934</v>
+        <v>0.007077922306666664</v>
       </c>
       <c r="E71">
-        <v>0.06229764329063162</v>
+        <v>-0.06444120072937276</v>
       </c>
       <c r="F71">
-        <v>-0.01956437293940179</v>
+        <v>0.04872027686872308</v>
       </c>
       <c r="G71">
-        <v>-0.08025581607804429</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01893979116034236</v>
+      </c>
+      <c r="H71">
+        <v>0.03563464752479072</v>
+      </c>
+      <c r="I71">
+        <v>-0.1463149194655834</v>
+      </c>
+      <c r="J71">
+        <v>0.03588022165160261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.117787849332934</v>
+        <v>0.1203490542255144</v>
       </c>
       <c r="C72">
-        <v>-0.0123200657255392</v>
+        <v>0.009403282482884247</v>
       </c>
       <c r="D72">
-        <v>0.04864127713815711</v>
+        <v>-0.05556375080424224</v>
       </c>
       <c r="E72">
-        <v>0.09107510096032811</v>
+        <v>-0.01631208210961102</v>
       </c>
       <c r="F72">
-        <v>-0.008631010421573914</v>
+        <v>0.08439197685308966</v>
       </c>
       <c r="G72">
-        <v>0.05851476506090582</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04608590983764362</v>
+      </c>
+      <c r="H72">
+        <v>0.002271290395042261</v>
+      </c>
+      <c r="I72">
+        <v>0.02670309682578871</v>
+      </c>
+      <c r="J72">
+        <v>0.1320660242792674</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2803077463963543</v>
+        <v>0.2684582760309909</v>
       </c>
       <c r="C73">
-        <v>-0.1935875102644576</v>
+        <v>-0.1082495317655029</v>
       </c>
       <c r="D73">
-        <v>-0.01087365901368405</v>
+        <v>-0.004713396331061884</v>
       </c>
       <c r="E73">
-        <v>0.3090664950175335</v>
+        <v>-0.2189412932195773</v>
       </c>
       <c r="F73">
-        <v>-0.0850933902336537</v>
+        <v>0.2650776460019996</v>
       </c>
       <c r="G73">
-        <v>-0.3823226943602558</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1117800524071655</v>
+      </c>
+      <c r="H73">
+        <v>0.4449247319830867</v>
+      </c>
+      <c r="I73">
+        <v>0.3457842537222117</v>
+      </c>
+      <c r="J73">
+        <v>0.04666347406835793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1588798863703486</v>
+        <v>0.1517864220809391</v>
       </c>
       <c r="C74">
-        <v>-0.003365940273721845</v>
+        <v>0.02348837402704721</v>
       </c>
       <c r="D74">
-        <v>0.0452845910758202</v>
+        <v>-0.04703575423345651</v>
       </c>
       <c r="E74">
-        <v>-0.008177820410874032</v>
+        <v>0.0174287881595636</v>
       </c>
       <c r="F74">
-        <v>0.05132612731330621</v>
+        <v>-0.03853027663624824</v>
       </c>
       <c r="G74">
-        <v>-0.04240772461835205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01438654386407547</v>
+      </c>
+      <c r="H74">
+        <v>0.02334662820300742</v>
+      </c>
+      <c r="I74">
+        <v>0.009146264249753441</v>
+      </c>
+      <c r="J74">
+        <v>-0.08212405193830621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.238097335226464</v>
+        <v>0.2433520713549699</v>
       </c>
       <c r="C75">
-        <v>-0.007874691872300495</v>
+        <v>0.02724800655636614</v>
       </c>
       <c r="D75">
-        <v>0.05662980796687516</v>
+        <v>-0.1010133256273462</v>
       </c>
       <c r="E75">
-        <v>-0.1227029328772915</v>
+        <v>0.04109247234895384</v>
       </c>
       <c r="F75">
-        <v>0.06453460125218093</v>
+        <v>-0.1265639829407388</v>
       </c>
       <c r="G75">
-        <v>-0.02823113732367325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.007403096604632689</v>
+      </c>
+      <c r="H75">
+        <v>0.01790664668925186</v>
+      </c>
+      <c r="I75">
+        <v>-0.06602611618452334</v>
+      </c>
+      <c r="J75">
+        <v>-0.094891391518375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2451932277871583</v>
+        <v>0.2673348854625152</v>
       </c>
       <c r="C76">
-        <v>-0.01109629103065048</v>
+        <v>0.02206935966518643</v>
       </c>
       <c r="D76">
-        <v>0.09539380263190776</v>
+        <v>-0.1259338261347186</v>
       </c>
       <c r="E76">
-        <v>-0.1145283736226256</v>
+        <v>0.08477335807584861</v>
       </c>
       <c r="F76">
-        <v>0.08339028855818476</v>
+        <v>-0.1466238107095739</v>
       </c>
       <c r="G76">
-        <v>-0.04773487917709951</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04409785553411372</v>
+      </c>
+      <c r="H76">
+        <v>0.03588351382741121</v>
+      </c>
+      <c r="I76">
+        <v>0.02270322387726893</v>
+      </c>
+      <c r="J76">
+        <v>-0.1119290311851253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1224923891378495</v>
+        <v>0.1305286559738864</v>
       </c>
       <c r="C77">
-        <v>0.0184334776388645</v>
+        <v>0.05610574498517636</v>
       </c>
       <c r="D77">
-        <v>-0.04826308564764474</v>
+        <v>0.04307624062620736</v>
       </c>
       <c r="E77">
-        <v>0.1683777602915285</v>
+        <v>-0.04361684767278416</v>
       </c>
       <c r="F77">
-        <v>-0.01858817511595047</v>
+        <v>0.1693780091525289</v>
       </c>
       <c r="G77">
-        <v>0.1625868956537794</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02709621379117528</v>
+      </c>
+      <c r="H77">
+        <v>-0.2006145065416736</v>
+      </c>
+      <c r="I77">
+        <v>-0.1678005060530262</v>
+      </c>
+      <c r="J77">
+        <v>-0.1298414000801714</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08996893008591442</v>
+        <v>0.08783327275869778</v>
       </c>
       <c r="C78">
-        <v>0.03157106023169608</v>
+        <v>0.05841517827658961</v>
       </c>
       <c r="D78">
-        <v>-0.01542574209578206</v>
+        <v>0.0007054449385780823</v>
       </c>
       <c r="E78">
-        <v>0.06734144064250974</v>
+        <v>-0.007959322528059729</v>
       </c>
       <c r="F78">
-        <v>-0.01799968672084802</v>
+        <v>0.08948068778956776</v>
       </c>
       <c r="G78">
-        <v>0.003625613066332798</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.002142311966126985</v>
+      </c>
+      <c r="H78">
+        <v>-0.02855221799344474</v>
+      </c>
+      <c r="I78">
+        <v>-0.03566966615233145</v>
+      </c>
+      <c r="J78">
+        <v>-0.01681047349590111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06037500111013581</v>
+        <v>0.1134097372659225</v>
       </c>
       <c r="C80">
-        <v>0.00661598502566549</v>
+        <v>-0.133053039611375</v>
       </c>
       <c r="D80">
-        <v>-0.01576556405793298</v>
+        <v>0.2601523635923328</v>
       </c>
       <c r="E80">
-        <v>0.03035961248684913</v>
+        <v>0.8831949596717931</v>
       </c>
       <c r="F80">
-        <v>0.03975016280332003</v>
+        <v>0.2926808454840985</v>
       </c>
       <c r="G80">
-        <v>0.4074569817875656</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01904434602398909</v>
+      </c>
+      <c r="H80">
+        <v>0.1148416608021691</v>
+      </c>
+      <c r="I80">
+        <v>0.05249410907273051</v>
+      </c>
+      <c r="J80">
+        <v>0.06447596994997097</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1666318506037658</v>
+        <v>0.1780520899568595</v>
       </c>
       <c r="C81">
-        <v>-0.006029745555276043</v>
+        <v>0.01152486861339612</v>
       </c>
       <c r="D81">
-        <v>0.0446042939397008</v>
+        <v>-0.08368095568600808</v>
       </c>
       <c r="E81">
-        <v>-0.1283955277162392</v>
+        <v>0.05139967590848332</v>
       </c>
       <c r="F81">
-        <v>0.098861803256313</v>
+        <v>-0.1383219985892089</v>
       </c>
       <c r="G81">
-        <v>-0.04088810762968832</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02323383501496978</v>
+      </c>
+      <c r="H81">
+        <v>0.01670489188335549</v>
+      </c>
+      <c r="I81">
+        <v>-0.03139144371006013</v>
+      </c>
+      <c r="J81">
+        <v>-0.04760312920310696</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08476746174105883</v>
+        <v>0.06437666801491605</v>
       </c>
       <c r="C83">
-        <v>0.04220645491833883</v>
+        <v>0.04246401094292753</v>
       </c>
       <c r="D83">
-        <v>-0.09243588174643409</v>
+        <v>0.04000818324596197</v>
       </c>
       <c r="E83">
-        <v>0.03726337788684972</v>
+        <v>-0.03898315296347321</v>
       </c>
       <c r="F83">
-        <v>-0.05871176366664615</v>
+        <v>0.04822951507940079</v>
       </c>
       <c r="G83">
-        <v>0.01184141857084811</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0453088782271758</v>
+      </c>
+      <c r="H83">
+        <v>-0.03540540014919551</v>
+      </c>
+      <c r="I83">
+        <v>-0.02124242747735608</v>
+      </c>
+      <c r="J83">
+        <v>-0.07784373524562788</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2370952855839114</v>
+        <v>0.2549778814664215</v>
       </c>
       <c r="C85">
-        <v>0.05694848928513399</v>
+        <v>0.06051355327218608</v>
       </c>
       <c r="D85">
-        <v>0.05031374297870141</v>
+        <v>-0.08344351254535062</v>
       </c>
       <c r="E85">
-        <v>-0.1389517849709016</v>
+        <v>0.08332459867739161</v>
       </c>
       <c r="F85">
-        <v>0.0657444890435141</v>
+        <v>-0.1428773584386342</v>
       </c>
       <c r="G85">
-        <v>-0.002521023046837973</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.007259292135432667</v>
+      </c>
+      <c r="H85">
+        <v>-0.01409272224301896</v>
+      </c>
+      <c r="I85">
+        <v>-0.03884272386060634</v>
+      </c>
+      <c r="J85">
+        <v>-0.1114530394108415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04822448382955475</v>
+        <v>0.02880186053827339</v>
       </c>
       <c r="C86">
-        <v>0.04127551181678169</v>
+        <v>0.04724869429335994</v>
       </c>
       <c r="D86">
-        <v>0.007769380857229288</v>
+        <v>-0.003878954400904022</v>
       </c>
       <c r="E86">
-        <v>0.0513788298248696</v>
+        <v>-0.001245414358600154</v>
       </c>
       <c r="F86">
-        <v>-0.002073893065332525</v>
+        <v>0.06800374147092174</v>
       </c>
       <c r="G86">
-        <v>0.03397925025110635</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.003133147759591682</v>
+      </c>
+      <c r="H86">
+        <v>-0.05681072858532044</v>
+      </c>
+      <c r="I86">
+        <v>-0.05429355201731322</v>
+      </c>
+      <c r="J86">
+        <v>-0.02149820470312674</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02460695948104489</v>
+        <v>0.03525138988404639</v>
       </c>
       <c r="C87">
-        <v>-0.05442495745584994</v>
+        <v>-0.02242585437345634</v>
       </c>
       <c r="D87">
-        <v>0.02173451914091778</v>
+        <v>-0.007297298422628122</v>
       </c>
       <c r="E87">
-        <v>0.05930304636093359</v>
+        <v>-0.0335767168609939</v>
       </c>
       <c r="F87">
-        <v>-0.05907821222584768</v>
+        <v>0.09004074568493822</v>
       </c>
       <c r="G87">
-        <v>-0.1139124636047999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0256390882539131</v>
+      </c>
+      <c r="H87">
+        <v>0.006624166857681426</v>
+      </c>
+      <c r="I87">
+        <v>0.008846928567960011</v>
+      </c>
+      <c r="J87">
+        <v>0.06004107470653821</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03787285309948869</v>
+        <v>0.02480878479878972</v>
       </c>
       <c r="C88">
-        <v>0.02706678819449417</v>
+        <v>0.01868756804311847</v>
       </c>
       <c r="D88">
-        <v>0.006398649138257956</v>
+        <v>-0.01042862882252619</v>
       </c>
       <c r="E88">
-        <v>-0.00224922977503816</v>
+        <v>0.02425222754290325</v>
       </c>
       <c r="F88">
-        <v>0.01077095582068936</v>
+        <v>0.005184623641902975</v>
       </c>
       <c r="G88">
-        <v>0.05056737150998032</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02603803880662603</v>
+      </c>
+      <c r="H88">
+        <v>-0.04717443483110786</v>
+      </c>
+      <c r="I88">
+        <v>0.02101689958794819</v>
+      </c>
+      <c r="J88">
+        <v>0.005930026324492459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.007617223065330278</v>
+        <v>0.06116213129102821</v>
       </c>
       <c r="C89">
-        <v>-0.4244928434380124</v>
+        <v>-0.3930551668790967</v>
       </c>
       <c r="D89">
-        <v>-0.09120894254976727</v>
+        <v>0.02754323590061134</v>
       </c>
       <c r="E89">
-        <v>-0.02495296589754999</v>
+        <v>-0.08187431800417899</v>
       </c>
       <c r="F89">
-        <v>-0.004221633495399842</v>
+        <v>-0.0009958990385557146</v>
       </c>
       <c r="G89">
-        <v>0.03732738257972084</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.05563852426146638</v>
+      </c>
+      <c r="H89">
+        <v>-0.0220662928985169</v>
+      </c>
+      <c r="I89">
+        <v>-0.2858811927714067</v>
+      </c>
+      <c r="J89">
+        <v>-0.01431495720613114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.00167810508906819</v>
+        <v>0.04249104187933598</v>
       </c>
       <c r="C90">
-        <v>-0.3050905026858844</v>
+        <v>-0.3314136327775921</v>
       </c>
       <c r="D90">
-        <v>-0.01895758855300328</v>
+        <v>0.01457583666652927</v>
       </c>
       <c r="E90">
-        <v>0.03101722474207774</v>
+        <v>-0.03491432074653168</v>
       </c>
       <c r="F90">
-        <v>-0.01210899233664961</v>
+        <v>0.02788788128562321</v>
       </c>
       <c r="G90">
-        <v>-0.06578816200342082</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0228146073603335</v>
+      </c>
+      <c r="H90">
+        <v>0.02607913102979957</v>
+      </c>
+      <c r="I90">
+        <v>-0.2161476486832141</v>
+      </c>
+      <c r="J90">
+        <v>0.02555273585638964</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3044804057327726</v>
+        <v>0.3166325420832045</v>
       </c>
       <c r="C91">
-        <v>0.02752302199900961</v>
+        <v>0.04781541291320977</v>
       </c>
       <c r="D91">
-        <v>0.05087978258658191</v>
+        <v>-0.09985566663118418</v>
       </c>
       <c r="E91">
-        <v>-0.2727820412590127</v>
+        <v>0.09866715628189156</v>
       </c>
       <c r="F91">
-        <v>0.1727050924843401</v>
+        <v>-0.2736942947754967</v>
       </c>
       <c r="G91">
-        <v>0.04819411524845257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04024385170510097</v>
+      </c>
+      <c r="H91">
+        <v>0.02740281468842183</v>
+      </c>
+      <c r="I91">
+        <v>-0.08277184150989715</v>
+      </c>
+      <c r="J91">
+        <v>-0.2178829885079985</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.01717999046602418</v>
+        <v>0.08372017608072424</v>
       </c>
       <c r="C92">
-        <v>-0.4426234378265899</v>
+        <v>-0.4575611514999668</v>
       </c>
       <c r="D92">
-        <v>-0.2058102377628005</v>
+        <v>0.05247134841759469</v>
       </c>
       <c r="E92">
-        <v>-0.1106097400952349</v>
+        <v>-0.0008411819261293824</v>
       </c>
       <c r="F92">
-        <v>0.1022667054155943</v>
+        <v>-0.1533825326973596</v>
       </c>
       <c r="G92">
-        <v>0.4486189256171094</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0321117756361769</v>
+      </c>
+      <c r="H92">
+        <v>-0.518556803332618</v>
+      </c>
+      <c r="I92">
+        <v>0.663818265721638</v>
+      </c>
+      <c r="J92">
+        <v>-0.1531265382055954</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01603491066810437</v>
+        <v>0.04289036061548536</v>
       </c>
       <c r="C93">
-        <v>-0.3687470569452052</v>
+        <v>-0.4037692325248944</v>
       </c>
       <c r="D93">
-        <v>-0.06377026598360615</v>
+        <v>0.03730923567058652</v>
       </c>
       <c r="E93">
-        <v>-0.04406030817963101</v>
+        <v>-0.05674215005880737</v>
       </c>
       <c r="F93">
-        <v>0.01697024598643654</v>
+        <v>-0.03602842808137526</v>
       </c>
       <c r="G93">
-        <v>0.01729033483681366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03983939043755691</v>
+      </c>
+      <c r="H93">
+        <v>0.03421382549007212</v>
+      </c>
+      <c r="I93">
+        <v>-0.2007906687616849</v>
+      </c>
+      <c r="J93">
+        <v>0.001903781348132191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3000630848668605</v>
+        <v>0.3229765167275016</v>
       </c>
       <c r="C94">
-        <v>-0.03000208255118391</v>
+        <v>0.008645072577556747</v>
       </c>
       <c r="D94">
-        <v>0.0006228385249469657</v>
+        <v>-0.149067929093729</v>
       </c>
       <c r="E94">
-        <v>-0.3578186417061795</v>
+        <v>0.0751364766606762</v>
       </c>
       <c r="F94">
-        <v>0.4175584169286676</v>
+        <v>-0.3518770827748285</v>
       </c>
       <c r="G94">
-        <v>-0.02441893837990453</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1696363647990743</v>
+      </c>
+      <c r="H94">
+        <v>-0.08297129457649055</v>
+      </c>
+      <c r="I94">
+        <v>-0.1125146732190856</v>
+      </c>
+      <c r="J94">
+        <v>0.3210103608107929</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1999744060209229</v>
+        <v>0.1366459126973896</v>
       </c>
       <c r="C95">
-        <v>-0.02553985644890195</v>
+        <v>0.06253026352747455</v>
       </c>
       <c r="D95">
-        <v>-0.01001052878983139</v>
+        <v>-0.04430073626067269</v>
       </c>
       <c r="E95">
-        <v>-0.4479557007824723</v>
+        <v>-0.02825740037663677</v>
       </c>
       <c r="F95">
-        <v>-0.8211700362131349</v>
+        <v>-0.04866024398625684</v>
       </c>
       <c r="G95">
-        <v>0.1061257070453262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9351206295890828</v>
+      </c>
+      <c r="H95">
+        <v>0.05404060804125305</v>
+      </c>
+      <c r="I95">
+        <v>0.05867078230359271</v>
+      </c>
+      <c r="J95">
+        <v>0.1998017951142984</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.215895884384609</v>
+        <v>0.2038673298144166</v>
       </c>
       <c r="C98">
-        <v>-0.1362425362385424</v>
+        <v>-0.07654621578349308</v>
       </c>
       <c r="D98">
-        <v>-0.02753282227387919</v>
+        <v>0.004180576182420237</v>
       </c>
       <c r="E98">
-        <v>0.107239860654966</v>
+        <v>-0.1475404299924063</v>
       </c>
       <c r="F98">
-        <v>-0.04685415188757799</v>
+        <v>0.1244596655904223</v>
       </c>
       <c r="G98">
-        <v>-0.2542587737386083</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.04597035090474814</v>
+      </c>
+      <c r="H98">
+        <v>0.3085713964084518</v>
+      </c>
+      <c r="I98">
+        <v>0.1988785808015174</v>
+      </c>
+      <c r="J98">
+        <v>-0.009799083247777375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01822930522445077</v>
+        <v>0.01161153585621098</v>
       </c>
       <c r="C101">
-        <v>0.01818023848028266</v>
+        <v>0.02871735519490164</v>
       </c>
       <c r="D101">
-        <v>0.02470363549018658</v>
+        <v>-0.02641056289722886</v>
       </c>
       <c r="E101">
-        <v>0.02777762104651167</v>
+        <v>0.001984103889576381</v>
       </c>
       <c r="F101">
-        <v>-0.006115393229249492</v>
+        <v>0.06614164958386867</v>
       </c>
       <c r="G101">
-        <v>0.03984928929700918</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.009242580516320313</v>
+      </c>
+      <c r="H101">
+        <v>-0.1156092750728727</v>
+      </c>
+      <c r="I101">
+        <v>0.01032281648928138</v>
+      </c>
+      <c r="J101">
+        <v>0.1906099488315698</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1199029356005345</v>
+        <v>0.1204330337288439</v>
       </c>
       <c r="C102">
-        <v>0.01153368820763678</v>
+        <v>0.02869615818581155</v>
       </c>
       <c r="D102">
-        <v>0.03632623823419145</v>
+        <v>-0.05086465890507353</v>
       </c>
       <c r="E102">
-        <v>-0.08814579914273853</v>
+        <v>0.04959217360781321</v>
       </c>
       <c r="F102">
-        <v>0.006814397210736465</v>
+        <v>-0.07848880914939853</v>
       </c>
       <c r="G102">
-        <v>-0.001259838653244044</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02997526053045643</v>
+      </c>
+      <c r="H102">
+        <v>0.01484660573422282</v>
+      </c>
+      <c r="I102">
+        <v>-0.03866158483738279</v>
+      </c>
+      <c r="J102">
+        <v>-0.04390569733693245</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01910217281890605</v>
+        <v>0.03146812657672293</v>
       </c>
       <c r="C103">
-        <v>-0.001763113950700532</v>
+        <v>0.005941072572354321</v>
       </c>
       <c r="D103">
-        <v>0.01221295104565801</v>
+        <v>-0.01837649853890125</v>
       </c>
       <c r="E103">
-        <v>-0.02344753497246742</v>
+        <v>0.02418988609641576</v>
       </c>
       <c r="F103">
-        <v>0.01154590951885477</v>
+        <v>-0.01194386534129776</v>
       </c>
       <c r="G103">
-        <v>-0.003614283853564406</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01523081138506595</v>
+      </c>
+      <c r="H103">
+        <v>-0.01396839548098345</v>
+      </c>
+      <c r="I103">
+        <v>-0.03046388897109587</v>
+      </c>
+      <c r="J103">
+        <v>-0.01392450380048908</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
